--- a/biology/Zoologie/Iranattus_principalis/Iranattus_principalis.xlsx
+++ b/biology/Zoologie/Iranattus_principalis/Iranattus_principalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iranattus principalis est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iranattus principalis est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Zimbabwe, au Nigeria, au Cameroun et en Côte d'Ivoire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Zimbabwe, au Nigeria, au Cameroun et en Côte d'Ivoire.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,4 mm de long sur 2,2 mm et l'abdomen 1,8 mm de long sur 1,1 mm[2].
-La carapace de la femelle décrite par Wesołowska et Russell-Smith en 2022 mesure 2,3 mm de long sur 2,0 mm et l'abdomen 2,2 mm de long sur 1,5 mm[3].
-La carapace du mâle décrit par Marathe, Tripathi, Sudhikumar et Maddison en 2024 mesure 2,2 mm de long sur 2,1 mm et l'abdomen 1,7 mm de long sur 1,4 mm et la carapace de la femelle 5,1 mm de long sur 5,1 mm et l'abdomen 6,4 mm de long sur 4,8 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,4 mm de long sur 2,2 mm et l'abdomen 1,8 mm de long sur 1,1 mm.
+La carapace de la femelle décrite par Wesołowska et Russell-Smith en 2022 mesure 2,3 mm de long sur 2,0 mm et l'abdomen 2,2 mm de long sur 1,5 mm.
+La carapace du mâle décrit par Marathe, Tripathi, Sudhikumar et Maddison en 2024 mesure 2,2 mm de long sur 2,1 mm et l'abdomen 1,7 mm de long sur 1,4 mm et la carapace de la femelle 5,1 mm de long sur 5,1 mm et l'abdomen 6,4 mm de long sur 4,8 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Monomotapa principalis par Wesołowska en 2000. Elle est placée dans le genre Iranattus par Prószyński en 2017[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Monomotapa principalis par Wesołowska en 2000. Elle est placée dans le genre Iranattus par Prószyński en 2017.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wesołowska, 2000 : « New and little known species of jumping spiders from Zimbabwe (Araneae: Salticidae). » Arnoldia Zimbabwe, vol. 10, no 15, p. 145-174.</t>
         </is>
